--- a/instance/zyjk/SAAS/iSwagger/saasuser.xlsx
+++ b/instance/zyjk/SAAS/iSwagger/saasuser.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -51,6 +51,13 @@
       <i val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -82,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -197,6 +204,402 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,49 +979,50 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="177" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="177" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="177" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="177" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="177" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="32" t="inlineStr">
+      <c r="F1" s="177" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="32" t="inlineStr">
+      <c r="G1" s="177" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="32" t="inlineStr">
+      <c r="H1" s="177" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
@@ -2096,7 +2500,7 @@
       <c r="F48" s="1" t="inlineStr"/>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [], "pageSize": 0}</t>
+          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [{}], "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2533,7 @@
       <c r="F49" s="1" t="inlineStr"/>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [], "pageSize": 0}</t>
+          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [{}], "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3615,7 @@
       <c r="F84" s="1" t="inlineStr"/>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>{"additionalFields": "", "children": [], "component": "", "createId": 0, "createTime": "", "icon": "", "id": 0, "isCheck": 0, "isHide": 0, "mate": "", "menuCode": "", "name": "", "orderNum": 0, "parentCode": "", "permissionValue": "", "redirect": "", "serverType": "", "status": 0, "system": "", "systemType": 0, "type": 0, "updateId": 0, "updateTime": "", "url": ""}</t>
+          <t>{"additionalFields": "", "children": [{"additionalFields": "", "children": [], "component": "", "createId": 0, "createTime": "", "icon": "", "id": 0, "isCheck": 0, "isHide": 0, "mate": "", "menuCode": "", "name": "", "orderNum": 0, "parentCode": "", "permissionValue": "", "redirect": "", "serverType": "", "status": 0, "system": "", "systemType": 0, "type": 0, "updateId": 0, "updateTime": "", "url": ""}], "component": "", "createId": 0, "createTime": "", "icon": "", "id": 0, "isCheck": 0, "isHide": 0, "mate": "", "menuCode": "", "name": "", "orderNum": 0, "parentCode": "", "permissionValue": "", "redirect": "", "serverType": "", "status": 0, "system": "", "systemType": 0, "type": 0, "updateId": 0, "updateTime": "", "url": ""}</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4462,7 @@
       <c r="F111" s="1" t="inlineStr"/>
       <c r="G111" s="1" t="inlineStr">
         <is>
-          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [{}], "projectId": [{}], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4495,7 @@
       <c r="F112" s="1" t="inlineStr"/>
       <c r="G112" s="1" t="inlineStr">
         <is>
-          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [{}], "projectId": [{}], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4528,7 @@
       <c r="F113" s="1" t="inlineStr"/>
       <c r="G113" s="1" t="inlineStr">
         <is>
-          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [{}], "projectId": [{}], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +5055,7 @@
       <c r="F129" s="1" t="inlineStr"/>
       <c r="G129" s="1" t="inlineStr">
         <is>
-          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -4679,7 +5083,7 @@
       <c r="F130" s="1" t="inlineStr"/>
       <c r="G130" s="1" t="inlineStr">
         <is>
-          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -4798,7 +5202,7 @@
       <c r="F134" s="1" t="inlineStr"/>
       <c r="G134" s="1" t="inlineStr">
         <is>
-          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -4880,7 +5284,7 @@
       <c r="F137" s="1" t="inlineStr"/>
       <c r="G137" s="1" t="inlineStr">
         <is>
-          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": []}</t>
+          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [{}], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5514,7 @@
       <c r="F144" s="1" t="inlineStr"/>
       <c r="G144" s="1" t="inlineStr">
         <is>
-          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": []}</t>
+          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [{}], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6721,7 @@
       <c r="F183" s="1" t="inlineStr"/>
       <c r="G183" s="1" t="inlineStr">
         <is>
-          <t>{"projectId": 0, "residueSystemIds": [], "systemIds": []}</t>
+          <t>{"projectId": 0, "residueSystemIds": [{}], "systemIds": [{}]}</t>
         </is>
       </c>
     </row>
@@ -6944,7 +7348,7 @@
       <c r="F203" s="1" t="inlineStr"/>
       <c r="G203" s="1" t="inlineStr">
         <is>
-          <t>{"projectId": 0, "roleList": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
+          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7414,7 @@
       <c r="F205" s="1" t="inlineStr"/>
       <c r="G205" s="1" t="inlineStr">
         <is>
-          <t>{"projectId": 0, "roleList": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
+          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -7793,7 +8197,7 @@
       <c r="F229" s="1" t="inlineStr"/>
       <c r="G229" s="1" t="inlineStr">
         <is>
-          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [{}], "pageSize": 0, "statusList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -7993,7 +8397,7 @@
       <c r="F236" s="1" t="inlineStr"/>
       <c r="G236" s="1" t="inlineStr">
         <is>
-          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [{}], "pageSize": 0, "statusList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8555,7 @@
       <c r="F241" s="1" t="inlineStr"/>
       <c r="G241" s="1" t="inlineStr">
         <is>
-          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [{}], "pageSize": 0, "statusList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -8698,7 +9102,7 @@
       <c r="F258" s="1" t="inlineStr"/>
       <c r="G258" s="1" t="inlineStr">
         <is>
-          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}</t>
+          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": [{}]}</t>
         </is>
       </c>
     </row>
@@ -8828,7 +9232,7 @@
       <c r="F262" s="1" t="inlineStr"/>
       <c r="G262" s="1" t="inlineStr">
         <is>
-          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}</t>
+          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": [{}]}</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/SAAS/iSwagger/saasuser.xlsx
+++ b/instance/zyjk/SAAS/iSwagger/saasuser.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -33,23 +33,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
-      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
@@ -89,16 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -135,471 +121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,42 +508,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="177" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="177" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="177" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="177" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="177" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="177" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="177" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="177" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
@@ -7348,7 +6869,7 @@
       <c r="F203" s="1" t="inlineStr"/>
       <c r="G203" s="1" t="inlineStr">
         <is>
-          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
+          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": {"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": true, "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}, "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -7414,7 +6935,7 @@
       <c r="F205" s="1" t="inlineStr"/>
       <c r="G205" s="1" t="inlineStr">
         <is>
-          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
+          <t>{"projectId": 0, "roleList": [{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}], "SysUserVO": {"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": true, "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}, "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
